--- a/extensiones/PHPExcel/Classes/importarIns.xlsx
+++ b/extensiones/PHPExcel/Classes/importarIns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kardex\extensiones\PHPExcel\Classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1B35D-FA55-4953-89EE-EFBC074224F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31EDFFB2-DDAC-4DBF-ACB8-07308382C0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="8190" windowWidth="18000" windowHeight="9480" xr2:uid="{B4CA8B5D-F8B6-4673-B6FE-DE551AF2E515}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{B4CA8B5D-F8B6-4673-B6FE-DE551AF2E515}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,44 +34,621 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1B0148A9-D2CC-4A97-B866-7005CB5BC432}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+stock para requisición o venta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FF395F09-2779-4AC4-8869-AC1CA0C1001F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ej: ingresa una caja de lapices, esta tiene 6 unidades de lapices, el valor seria: Caja, buscar que id tiene este valor y colocar el numero</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{48BE2CF4-40F9-4D4B-B03E-499B6AB3A81D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ej: una caja de lapices tiene 6 lapices, el valor seria: 6</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>id_categoria</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>observacion</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>estante</t>
-  </si>
-  <si>
-    <t>nivel</t>
-  </si>
-  <si>
-    <t>seccion</t>
-  </si>
-  <si>
-    <t>unidad</t>
-  </si>
-  <si>
-    <t>contenido</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="175">
+  <si>
+    <t>id_categoria(INT)</t>
+  </si>
+  <si>
+    <t>codigo(VARCHAR)</t>
+  </si>
+  <si>
+    <t>descripcion(TEXT)</t>
+  </si>
+  <si>
+    <t>observacion(TEXT)</t>
+  </si>
+  <si>
+    <t>stock(INT)</t>
+  </si>
+  <si>
+    <t>estante(CHAR)</t>
+  </si>
+  <si>
+    <t>nivel(CHAR)</t>
+  </si>
+  <si>
+    <t>seccion(CHAR)</t>
+  </si>
+  <si>
+    <t>unidad(INT)</t>
+  </si>
+  <si>
+    <t>contenido(INT)</t>
+  </si>
+  <si>
+    <t>AMBIENTADOR DE BAÑO AIR WICK</t>
+  </si>
+  <si>
+    <t>AROMATICA SURTIDA EN BOLSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATOMIZADOR AMBIENTADOR LAVANDA </t>
+  </si>
+  <si>
+    <t>AZUCAR ALTA PUREZA 200 TUBITOS DE 5G</t>
+  </si>
+  <si>
+    <t>AZUCAR BLANCA*REFINADA*GRANULADA*100% NATURAL</t>
+  </si>
+  <si>
+    <t>BANDEJA PORTA DOCUMENTOS</t>
+  </si>
+  <si>
+    <t>BLANQUEADOR (LIMPIDO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOLIGRAFO  ROJO </t>
+  </si>
+  <si>
+    <t>BOLIGRAFO NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOLSA BASURA NEGRA X 90*110 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOLSA BASURA VERDE 42*47CMS </t>
+  </si>
+  <si>
+    <t>BORRADOR DE NATA</t>
+  </si>
+  <si>
+    <t>BORRADOR DE TABLERO</t>
+  </si>
+  <si>
+    <t>CAFÉ TOSTADO Y MOLIDO, FUERTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARATULA POLY COVER CARTA </t>
+  </si>
+  <si>
+    <t>CARTULINA BRISTOL 1/8 X 8 SURTIDAS</t>
+  </si>
+  <si>
+    <t>CARTULINA BRISTOL 70*100 BLANCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD-R </t>
+  </si>
+  <si>
+    <t>CERA NATURAL SÓLIDA PARA MADERA AUTOBRILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTA EMP TRANSP 48X100 REF.301 3M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTA EMP TRANSP DELGADA 12 MM X40M </t>
+  </si>
+  <si>
+    <t>CINTA IMPRESORA EPSON LX300/800 8750- ORIGINAL</t>
+  </si>
+  <si>
+    <t>CINTA INVISIBLE 33M:19MM PARA CHEQUES</t>
+  </si>
+  <si>
+    <t>CLIP MARIPOSA GIGANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIP MARIPOSA X 50 EMP*50 </t>
+  </si>
+  <si>
+    <t>CLIP SENCILLO X 100 EMP*100</t>
+  </si>
+  <si>
+    <t>COLBON (PEGANTE UNIVERSAL) 480GR</t>
+  </si>
+  <si>
+    <t>COLCAFE COFFE CREAM 100 SOBRES DE 3 GR</t>
+  </si>
+  <si>
+    <t>CORRECTOR LIQUIDO LAPIZ *7 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREMA INSTANTANEA NO LACTEA PARA CAFÉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREMA LAVALOZA </t>
+  </si>
+  <si>
+    <t>CUENTA FACIL</t>
+  </si>
+  <si>
+    <t>DECAMETRO STANPROF 10 MTS</t>
+  </si>
+  <si>
+    <t>DECAMETRO STANPROF 30 MTS</t>
+  </si>
+  <si>
+    <t>DECAMETRO STANPROF 50 MTS</t>
+  </si>
+  <si>
+    <t>DESENGRASANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESINFECTANTE MULTIUSOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETERGENTE EN POLVO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVD +R </t>
+  </si>
+  <si>
+    <t>ESCOBA SUAVE MANGO MADERA</t>
+  </si>
+  <si>
+    <t>ESPONJA LAVAPLATOS DOBLE USO</t>
+  </si>
+  <si>
+    <t>FLEXOMETRO LUFKIN 26/8METROS</t>
+  </si>
+  <si>
+    <t>FOLIADOR (NUMERADOR CONSECUTIVO)</t>
+  </si>
+  <si>
+    <t>FORMAS CONTINUAS 1/2 11 1/2 TROQUELADA</t>
+  </si>
+  <si>
+    <t>FORMAS CONTINUAS 9 1/2 *11 1P BLANCA 901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMAS CONTINUAS 9 1/2 *11 3P BLANCA 903 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANCHO LEGAJADOR PLASTICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAPA COBRIZADA STANDARD *5000 </t>
+  </si>
+  <si>
+    <t>GRAPA GALVANIZADA INDUSTRIAL *1000</t>
+  </si>
+  <si>
+    <t>GRAPADORA 340 RANK (SENCILLA)</t>
+  </si>
+  <si>
+    <t>GRAPADORA INDUSTRIAL HASTA 100 HOJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUANTES DE LATEX DE  EXAMEN </t>
+  </si>
+  <si>
+    <t>GUANTES SEMI-INDUSTRIALES T9-9 ½*CALIBRE 25*LATEX NATURAL*COLOR NEGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIA CLASIFICADORA  CARTULINA REF. 105 AMARILLA </t>
+  </si>
+  <si>
+    <t>GUIAS CELUGUIA</t>
+  </si>
+  <si>
+    <t>HP 10 NEGRO</t>
+  </si>
+  <si>
+    <t>HP 711 AMARILLO</t>
+  </si>
+  <si>
+    <t>HP 711 CYAN</t>
+  </si>
+  <si>
+    <t>HP 711 MAGENTA</t>
+  </si>
+  <si>
+    <t>HP 711 NEGRO</t>
+  </si>
+  <si>
+    <t>HP 82 AMARILLO</t>
+  </si>
+  <si>
+    <t>HP 82 NEGRO</t>
+  </si>
+  <si>
+    <t>HUELLERO COLOR NEGRO</t>
+  </si>
+  <si>
+    <t>JABON LÍQUIDO PARA MANOS, ANTIBACTERIAL, BIODEGRADABLE AROMA MANZANA</t>
+  </si>
+  <si>
+    <t>LAMPARAS FLUORESCENTES SILVANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAPIZ NEGRO Nº2 ORIG. 482 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEGAJADOR AZ OFICIO AZUL </t>
+  </si>
+  <si>
+    <t>LEGAJOS (CARPETAS DE EDUBAR)</t>
+  </si>
+  <si>
+    <t>LEXMARK AMARILLO</t>
+  </si>
+  <si>
+    <t>LEXMARK CYAN</t>
+  </si>
+  <si>
+    <t>LEXMARK NEGRO</t>
+  </si>
+  <si>
+    <t>LIBRO ACTA 1/2 OFICIO 80H  100 FOLIOS (BITACORA)</t>
+  </si>
+  <si>
+    <t>LIMPIAVIDRIOS (AMONIACO-DESENGRASANTE SECADO RAPIDO)</t>
+  </si>
+  <si>
+    <t>LIMPION</t>
+  </si>
+  <si>
+    <t>LIQUIDO ESPECIAL PARA PISOS (BRILLO)</t>
+  </si>
+  <si>
+    <t>MARCADOR BORRABLE</t>
+  </si>
+  <si>
+    <t>MARCADOR PERMANENTE NEGRO PUNTA FINA  (SHARPIE)</t>
+  </si>
+  <si>
+    <t>MARCADORES PERMANENTES SURTIDOS (ROJO/AZUL/NEGRO)</t>
+  </si>
+  <si>
+    <t>MASCARILLA DESECHABLE (TAPABOCAS)</t>
+  </si>
+  <si>
+    <t>MEZCLADORES DESECHABLES PARA CAFÉ</t>
+  </si>
+  <si>
+    <t>MOUSE USB</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENIENICO INSTITUCIONAL ROLLOS, DOBLE HOJA, PRECORTADO, BLANCO</t>
+  </si>
+  <si>
+    <t>PAPEL RESMA DOBLE CARTA 11*17 75GRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPEL RESMA FOTOCOPIA 75GR CARTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPEL RESMA FOTOCOPIA 75GR OFICIO </t>
+  </si>
+  <si>
+    <t>PAPELERA (CANECA)</t>
+  </si>
+  <si>
+    <t>PASTA CATALOGO 0.5R HERRAJE BLANCA</t>
+  </si>
+  <si>
+    <t>PASTA CATALOGO 1.0R HERRAJE BLANCA</t>
+  </si>
+  <si>
+    <t>PASTA CATALOGO 1.5R HERRAJE BLANCA</t>
+  </si>
+  <si>
+    <t>PASTA CATALOGO 2.0R HERRAJE BLANCA</t>
+  </si>
+  <si>
+    <t>PASTA CATALOGO 2.5R HERRAJE BLANCA</t>
+  </si>
+  <si>
+    <t>PASTA CATALOGO 3.0D HERRAJE BLANCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEGANTE  EN BARRA 40GRS </t>
+  </si>
+  <si>
+    <t>PERFORADORA 3 HUECOS</t>
+  </si>
+  <si>
+    <t>PERFORADORA RANK 1050 DOS HUECOS SEMI INDUSTRIAL (40 HOJAS)</t>
+  </si>
+  <si>
+    <t>PERFORADORA SENCILLA 1038 RANK</t>
+  </si>
+  <si>
+    <t>PLATO DESECHABLE MEDIANO *20 ESPUMADO</t>
+  </si>
+  <si>
+    <t>PROTECTOR DE TRANSPARENCIA (BOLSILLOS)</t>
+  </si>
+  <si>
+    <t>RECIBO DE CAJA MENOR X 200 HOJAS</t>
+  </si>
+  <si>
+    <t>RECOGEDOR DE BASURA</t>
+  </si>
+  <si>
+    <t>REGLA DE 30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESALTADORES SURTIDOS </t>
+  </si>
+  <si>
+    <t>ROLLO PLOTER BOND 75 GR 28 PULGADAS</t>
+  </si>
+  <si>
+    <t>ROLLO TOALLA COCINA LAVABLE</t>
+  </si>
+  <si>
+    <t>SACAGRAPA</t>
+  </si>
+  <si>
+    <t>SACAPUNTA</t>
+  </si>
+  <si>
+    <t>SELLO NUMERADOR FOLIADOR AUTOMATICO CONSECUTIVO</t>
+  </si>
+  <si>
+    <t>SERVILLETA 27-5*17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOBRE MANILA CARTA  22*29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOBRE MANILA GIGANTE 37*27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOBRE MANILA OFICIO 25*35 </t>
+  </si>
+  <si>
+    <t>SOBRES NESCAFE TRADICION </t>
+  </si>
+  <si>
+    <t>TE HELADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECLADO KB-110X USB </t>
+  </si>
+  <si>
+    <t>TIJERA</t>
+  </si>
+  <si>
+    <t>TINTA EPSON 664 COLOR AMARILLO</t>
+  </si>
+  <si>
+    <t>TINTA EPSON 664 COLOR CYAN</t>
+  </si>
+  <si>
+    <t>TINTA EPSON 664 COLOR MAGENTA</t>
+  </si>
+  <si>
+    <t>TINTA EPSON 664 COLOR NEGRO</t>
+  </si>
+  <si>
+    <t>TINTA PARA SELLO DE CAUCHO</t>
+  </si>
+  <si>
+    <t>TIRA NEGRA (CAPACIDAD DE 300 HOJAS)</t>
+  </si>
+  <si>
+    <t>TIRA NEGRA 11MM*42 AROS (CAPACIDAD DE 70 HOJAS)</t>
+  </si>
+  <si>
+    <t>TIRA NEGRA 12 MM (CAPACIDAD DE 80 HOJAS)</t>
+  </si>
+  <si>
+    <t>TIRA NEGRA 15 MM (CAPACIDAD DE 120 HOJAS)</t>
+  </si>
+  <si>
+    <t>TIRA NEGRA 18 MM (CAPACIDAD DE 140 HOJAS)</t>
+  </si>
+  <si>
+    <t>TIRA NEGRA 22 MM (CAPACIDAD DE 170 HOJAS)</t>
+  </si>
+  <si>
+    <t>TIRA NEGRA 25 MM (CAPACIDAD DE 200 HOJAS)</t>
+  </si>
+  <si>
+    <t>TIRA NEGRA 9MM  (CAPACIDAD DE 50 HOJAS)</t>
+  </si>
+  <si>
+    <t>TK 512 AMARILLO</t>
+  </si>
+  <si>
+    <t>TK 512 MAGENTA</t>
+  </si>
+  <si>
+    <t>TK512 CYAN</t>
+  </si>
+  <si>
+    <t>TOALLA DE MANOS BLANCA 24X21CM HOJA TRIPLE DOBLADA EN Z</t>
+  </si>
+  <si>
+    <t>TONER NEGRO TK-1147 (2035)</t>
+  </si>
+  <si>
+    <t>TONER NEGRO TK-137 (2810)</t>
+  </si>
+  <si>
+    <t>TONER NEGRO TK-3122 (4200)</t>
+  </si>
+  <si>
+    <t>TONER NEGRO TK-3132 (4300)</t>
+  </si>
+  <si>
+    <t>TONER NEGRO TK-342 (2020)</t>
+  </si>
+  <si>
+    <t>TRAPERO TIPO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARSOL SIN OLOR </t>
+  </si>
+  <si>
+    <t>VASO 11 ONZAS TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>VASO CAFETERO TERMICO ESPUMADO (4 ONZAS)</t>
+  </si>
+  <si>
+    <t>LAPIZ ROJO</t>
+  </si>
+  <si>
+    <t>NOTAS ADHESIVAS</t>
+  </si>
+  <si>
+    <t>PLANILLERO ACRILICO CON GANCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCK ANOTACIÒN </t>
+  </si>
+  <si>
+    <t>CAJA ARCHIVO INACTIVO # 20</t>
+  </si>
+  <si>
+    <t>CALCULADORA CASIO 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>TONER TK-1175 (M2040dn)</t>
+  </si>
+  <si>
+    <t>TONER TK-3160/3162</t>
+  </si>
+  <si>
+    <t>CHINCHE TRITON NIQUELADO</t>
+  </si>
+  <si>
+    <t>EXACTO PLÀSTICO GRANDE</t>
+  </si>
+  <si>
+    <t>TONER NEGRO HP 85A(P1102W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVILLETA DE LUJO 33*32CM </t>
+  </si>
+  <si>
+    <t>FUNDA PARA CD</t>
+  </si>
+  <si>
+    <t>FORMAS CONTINUAS 9 1/2 x 5 1/2  2 PARTES</t>
+  </si>
+  <si>
+    <t>FORMAS CONTINUAS 9 1/2 x 11 2 PARTES</t>
+  </si>
+  <si>
+    <t>LEXMARK MAGENTA</t>
+  </si>
+  <si>
+    <t>BOLSA BLANCA</t>
+  </si>
+  <si>
+    <t>BANDERITA</t>
+  </si>
+  <si>
+    <t>TINTA EPSON MAGENTA 544</t>
+  </si>
+  <si>
+    <t>TINTA EPSON CYAN 544</t>
+  </si>
+  <si>
+    <t>LIBRO CARTA</t>
+  </si>
+  <si>
+    <t>BOLSA CANECA PEQUEÑA</t>
+  </si>
+  <si>
+    <t>SINF</t>
+  </si>
+  <si>
+    <t>SIN INFORMACION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,12 +657,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,14 +690,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -424,37 +1036,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F08D-C9D3-4F4B-9025-7CE6006A7692}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F89F08D-C9D3-4F4B-9025-7CE6006A7692}">
+  <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,19 +1086,5232 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40">
+        <v>106</v>
+      </c>
+      <c r="F40" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" t="s">
+        <v>173</v>
+      </c>
+      <c r="H43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" t="s">
+        <v>173</v>
+      </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>173</v>
+      </c>
+      <c r="G51" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" t="s">
+        <v>173</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" t="s">
+        <v>173</v>
+      </c>
+      <c r="H55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" t="s">
+        <v>173</v>
+      </c>
+      <c r="H59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" t="s">
+        <v>173</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" t="s">
+        <v>173</v>
+      </c>
+      <c r="H63" t="s">
+        <v>173</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" t="s">
+        <v>173</v>
+      </c>
+      <c r="H64" t="s">
+        <v>173</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" t="s">
+        <v>173</v>
+      </c>
+      <c r="H66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G67" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67" t="s">
+        <v>173</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" t="s">
+        <v>173</v>
+      </c>
+      <c r="H68" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69">
+        <v>500</v>
+      </c>
+      <c r="F69" t="s">
+        <v>173</v>
+      </c>
+      <c r="G69" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>173</v>
+      </c>
+      <c r="G70" t="s">
+        <v>173</v>
+      </c>
+      <c r="H70" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>173</v>
+      </c>
+      <c r="G71" t="s">
+        <v>173</v>
+      </c>
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>173</v>
+      </c>
+      <c r="G72" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" t="s">
+        <v>173</v>
+      </c>
+      <c r="H73" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G74" t="s">
+        <v>173</v>
+      </c>
+      <c r="H74" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>173</v>
+      </c>
+      <c r="G75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H75" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>173</v>
+      </c>
+      <c r="G76" t="s">
+        <v>173</v>
+      </c>
+      <c r="H76" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>173</v>
+      </c>
+      <c r="G77" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" t="s">
+        <v>173</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>173</v>
+      </c>
+      <c r="G78" t="s">
+        <v>173</v>
+      </c>
+      <c r="H78" t="s">
+        <v>173</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" t="s">
+        <v>173</v>
+      </c>
+      <c r="H79" t="s">
+        <v>173</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>173</v>
+      </c>
+      <c r="G80" t="s">
+        <v>173</v>
+      </c>
+      <c r="H80" t="s">
+        <v>173</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>173</v>
+      </c>
+      <c r="G81" t="s">
+        <v>173</v>
+      </c>
+      <c r="H81" t="s">
+        <v>173</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>173</v>
+      </c>
+      <c r="G82" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" t="s">
+        <v>173</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>173</v>
+      </c>
+      <c r="G83" t="s">
+        <v>173</v>
+      </c>
+      <c r="H83" t="s">
+        <v>173</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>173</v>
+      </c>
+      <c r="G84" t="s">
+        <v>173</v>
+      </c>
+      <c r="H84" t="s">
+        <v>173</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>173</v>
+      </c>
+      <c r="G85" t="s">
+        <v>173</v>
+      </c>
+      <c r="H85" t="s">
+        <v>173</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>173</v>
+      </c>
+      <c r="G86" t="s">
+        <v>173</v>
+      </c>
+      <c r="H86" t="s">
+        <v>173</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" t="s">
+        <v>173</v>
+      </c>
+      <c r="H87" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>173</v>
+      </c>
+      <c r="G88" t="s">
+        <v>173</v>
+      </c>
+      <c r="H88" t="s">
+        <v>173</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>173</v>
+      </c>
+      <c r="G89" t="s">
+        <v>173</v>
+      </c>
+      <c r="H89" t="s">
+        <v>173</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>173</v>
+      </c>
+      <c r="G90" t="s">
+        <v>173</v>
+      </c>
+      <c r="H90" t="s">
+        <v>173</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>173</v>
+      </c>
+      <c r="G91" t="s">
+        <v>173</v>
+      </c>
+      <c r="H91" t="s">
+        <v>173</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" t="s">
+        <v>174</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H92" t="s">
+        <v>173</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>173</v>
+      </c>
+      <c r="G93" t="s">
+        <v>173</v>
+      </c>
+      <c r="H93" t="s">
+        <v>173</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" t="s">
+        <v>174</v>
+      </c>
+      <c r="E94">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>173</v>
+      </c>
+      <c r="G94" t="s">
+        <v>173</v>
+      </c>
+      <c r="H94" t="s">
+        <v>173</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>173</v>
+      </c>
+      <c r="G95" t="s">
+        <v>173</v>
+      </c>
+      <c r="H95" t="s">
+        <v>173</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="s">
+        <v>174</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>173</v>
+      </c>
+      <c r="G96" t="s">
+        <v>173</v>
+      </c>
+      <c r="H96" t="s">
+        <v>173</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>173</v>
+      </c>
+      <c r="G97" t="s">
+        <v>173</v>
+      </c>
+      <c r="H97" t="s">
+        <v>173</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>174</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>173</v>
+      </c>
+      <c r="G98" t="s">
+        <v>173</v>
+      </c>
+      <c r="H98" t="s">
+        <v>173</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" t="s">
+        <v>174</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>173</v>
+      </c>
+      <c r="G99" t="s">
+        <v>173</v>
+      </c>
+      <c r="H99" t="s">
+        <v>173</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" t="s">
+        <v>174</v>
+      </c>
+      <c r="E100">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>173</v>
+      </c>
+      <c r="G100" t="s">
+        <v>173</v>
+      </c>
+      <c r="H100" t="s">
+        <v>173</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" t="s">
+        <v>174</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>173</v>
+      </c>
+      <c r="G101" t="s">
+        <v>173</v>
+      </c>
+      <c r="H101" t="s">
+        <v>173</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>174</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>173</v>
+      </c>
+      <c r="G102" t="s">
+        <v>173</v>
+      </c>
+      <c r="H102" t="s">
+        <v>173</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" t="s">
+        <v>174</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>173</v>
+      </c>
+      <c r="G103" t="s">
+        <v>173</v>
+      </c>
+      <c r="H103" t="s">
+        <v>173</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>174</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104" t="s">
+        <v>173</v>
+      </c>
+      <c r="G104" t="s">
+        <v>173</v>
+      </c>
+      <c r="H104" t="s">
+        <v>173</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" t="s">
+        <v>174</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>173</v>
+      </c>
+      <c r="G105" t="s">
+        <v>173</v>
+      </c>
+      <c r="H105" t="s">
+        <v>173</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" t="s">
+        <v>174</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>173</v>
+      </c>
+      <c r="G106" t="s">
+        <v>173</v>
+      </c>
+      <c r="H106" t="s">
+        <v>173</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" t="s">
+        <v>174</v>
+      </c>
+      <c r="E107">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>173</v>
+      </c>
+      <c r="G107" t="s">
+        <v>173</v>
+      </c>
+      <c r="H107" t="s">
+        <v>173</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>174</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>173</v>
+      </c>
+      <c r="G108" t="s">
+        <v>173</v>
+      </c>
+      <c r="H108" t="s">
+        <v>173</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" t="s">
+        <v>174</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>173</v>
+      </c>
+      <c r="G109" t="s">
+        <v>173</v>
+      </c>
+      <c r="H109" t="s">
+        <v>173</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" t="s">
+        <v>174</v>
+      </c>
+      <c r="E110">
+        <v>120</v>
+      </c>
+      <c r="F110" t="s">
+        <v>173</v>
+      </c>
+      <c r="G110" t="s">
+        <v>173</v>
+      </c>
+      <c r="H110" t="s">
+        <v>173</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" t="s">
+        <v>174</v>
+      </c>
+      <c r="E111">
+        <v>80</v>
+      </c>
+      <c r="F111" t="s">
+        <v>173</v>
+      </c>
+      <c r="G111" t="s">
+        <v>173</v>
+      </c>
+      <c r="H111" t="s">
+        <v>173</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>120</v>
+      </c>
+      <c r="D112" t="s">
+        <v>174</v>
+      </c>
+      <c r="E112">
+        <v>151</v>
+      </c>
+      <c r="F112" t="s">
+        <v>173</v>
+      </c>
+      <c r="G112" t="s">
+        <v>173</v>
+      </c>
+      <c r="H112" t="s">
+        <v>173</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" t="s">
+        <v>174</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>173</v>
+      </c>
+      <c r="G113" t="s">
+        <v>173</v>
+      </c>
+      <c r="H113" t="s">
+        <v>173</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" t="s">
+        <v>174</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>173</v>
+      </c>
+      <c r="G114" t="s">
+        <v>173</v>
+      </c>
+      <c r="H114" t="s">
+        <v>173</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" t="s">
+        <v>174</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>173</v>
+      </c>
+      <c r="G115" t="s">
+        <v>173</v>
+      </c>
+      <c r="H115" t="s">
+        <v>173</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" t="s">
+        <v>174</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>173</v>
+      </c>
+      <c r="G116" t="s">
+        <v>173</v>
+      </c>
+      <c r="H116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" t="s">
+        <v>174</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>173</v>
+      </c>
+      <c r="G117" t="s">
+        <v>173</v>
+      </c>
+      <c r="H117" t="s">
+        <v>173</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>126</v>
+      </c>
+      <c r="D118" t="s">
+        <v>174</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>173</v>
+      </c>
+      <c r="G118" t="s">
+        <v>173</v>
+      </c>
+      <c r="H118" t="s">
+        <v>173</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>173</v>
+      </c>
+      <c r="G119" t="s">
+        <v>173</v>
+      </c>
+      <c r="H119" t="s">
+        <v>173</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" t="s">
+        <v>174</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>173</v>
+      </c>
+      <c r="G120" t="s">
+        <v>173</v>
+      </c>
+      <c r="H120" t="s">
+        <v>173</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" t="s">
+        <v>174</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>173</v>
+      </c>
+      <c r="G121" t="s">
+        <v>173</v>
+      </c>
+      <c r="H121" t="s">
+        <v>173</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" t="s">
+        <v>174</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>173</v>
+      </c>
+      <c r="G122" t="s">
+        <v>173</v>
+      </c>
+      <c r="H122" t="s">
+        <v>173</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" t="s">
+        <v>174</v>
+      </c>
+      <c r="E123">
+        <v>79</v>
+      </c>
+      <c r="F123" t="s">
+        <v>173</v>
+      </c>
+      <c r="G123" t="s">
+        <v>173</v>
+      </c>
+      <c r="H123" t="s">
+        <v>173</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" t="s">
+        <v>174</v>
+      </c>
+      <c r="E124">
+        <v>109</v>
+      </c>
+      <c r="F124" t="s">
+        <v>173</v>
+      </c>
+      <c r="G124" t="s">
+        <v>173</v>
+      </c>
+      <c r="H124" t="s">
+        <v>173</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125">
+        <v>31</v>
+      </c>
+      <c r="F125" t="s">
+        <v>173</v>
+      </c>
+      <c r="G125" t="s">
+        <v>173</v>
+      </c>
+      <c r="H125" t="s">
+        <v>173</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>134</v>
+      </c>
+      <c r="D126" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126">
+        <v>34</v>
+      </c>
+      <c r="F126" t="s">
+        <v>173</v>
+      </c>
+      <c r="G126" t="s">
+        <v>173</v>
+      </c>
+      <c r="H126" t="s">
+        <v>173</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" t="s">
+        <v>174</v>
+      </c>
+      <c r="E127">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>173</v>
+      </c>
+      <c r="G127" t="s">
+        <v>173</v>
+      </c>
+      <c r="H127" t="s">
+        <v>173</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128">
+        <v>36</v>
+      </c>
+      <c r="F128" t="s">
+        <v>173</v>
+      </c>
+      <c r="G128" t="s">
+        <v>173</v>
+      </c>
+      <c r="H128" t="s">
+        <v>173</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>137</v>
+      </c>
+      <c r="D129" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129">
+        <v>208</v>
+      </c>
+      <c r="F129" t="s">
+        <v>173</v>
+      </c>
+      <c r="G129" t="s">
+        <v>173</v>
+      </c>
+      <c r="H129" t="s">
+        <v>173</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>138</v>
+      </c>
+      <c r="D130" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>173</v>
+      </c>
+      <c r="G130" t="s">
+        <v>173</v>
+      </c>
+      <c r="H130" t="s">
+        <v>173</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>139</v>
+      </c>
+      <c r="D131" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>173</v>
+      </c>
+      <c r="G131" t="s">
+        <v>173</v>
+      </c>
+      <c r="H131" t="s">
+        <v>173</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" t="s">
+        <v>174</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>173</v>
+      </c>
+      <c r="G132" t="s">
+        <v>173</v>
+      </c>
+      <c r="H132" t="s">
+        <v>173</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D133" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133">
+        <v>23</v>
+      </c>
+      <c r="F133" t="s">
+        <v>173</v>
+      </c>
+      <c r="G133" t="s">
+        <v>173</v>
+      </c>
+      <c r="H133" t="s">
+        <v>173</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>173</v>
+      </c>
+      <c r="G134" t="s">
+        <v>173</v>
+      </c>
+      <c r="H134" t="s">
+        <v>173</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" t="s">
+        <v>174</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>173</v>
+      </c>
+      <c r="G135" t="s">
+        <v>173</v>
+      </c>
+      <c r="H135" t="s">
+        <v>173</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>173</v>
+      </c>
+      <c r="G136" t="s">
+        <v>173</v>
+      </c>
+      <c r="H136" t="s">
+        <v>173</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137" t="s">
+        <v>174</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>173</v>
+      </c>
+      <c r="G137" t="s">
+        <v>173</v>
+      </c>
+      <c r="H137" t="s">
+        <v>173</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" t="s">
+        <v>174</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>173</v>
+      </c>
+      <c r="G138" t="s">
+        <v>173</v>
+      </c>
+      <c r="H138" t="s">
+        <v>173</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" t="s">
+        <v>174</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>173</v>
+      </c>
+      <c r="G139" t="s">
+        <v>173</v>
+      </c>
+      <c r="H139" t="s">
+        <v>173</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>173</v>
+      </c>
+      <c r="G140" t="s">
+        <v>173</v>
+      </c>
+      <c r="H140" t="s">
+        <v>173</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" t="s">
+        <v>174</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>173</v>
+      </c>
+      <c r="G141" t="s">
+        <v>173</v>
+      </c>
+      <c r="H141" t="s">
+        <v>173</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" t="s">
+        <v>174</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>173</v>
+      </c>
+      <c r="G142" t="s">
+        <v>173</v>
+      </c>
+      <c r="H142" t="s">
+        <v>173</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" t="s">
+        <v>174</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>173</v>
+      </c>
+      <c r="G143" t="s">
+        <v>173</v>
+      </c>
+      <c r="H143" t="s">
+        <v>173</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" t="s">
+        <v>174</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>173</v>
+      </c>
+      <c r="G144" t="s">
+        <v>173</v>
+      </c>
+      <c r="H144" t="s">
+        <v>173</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" t="s">
+        <v>174</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>173</v>
+      </c>
+      <c r="G145" t="s">
+        <v>173</v>
+      </c>
+      <c r="H145" t="s">
+        <v>173</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" t="s">
+        <v>174</v>
+      </c>
+      <c r="E146">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>173</v>
+      </c>
+      <c r="G146" t="s">
+        <v>173</v>
+      </c>
+      <c r="H146" t="s">
+        <v>173</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" t="s">
+        <v>174</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>173</v>
+      </c>
+      <c r="G147" t="s">
+        <v>173</v>
+      </c>
+      <c r="H147" t="s">
+        <v>173</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>156</v>
+      </c>
+      <c r="D148" t="s">
+        <v>174</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>173</v>
+      </c>
+      <c r="G148" t="s">
+        <v>173</v>
+      </c>
+      <c r="H148" t="s">
+        <v>173</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>157</v>
+      </c>
+      <c r="D149" t="s">
+        <v>174</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>173</v>
+      </c>
+      <c r="G149" t="s">
+        <v>173</v>
+      </c>
+      <c r="H149" t="s">
+        <v>173</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" t="s">
+        <v>174</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>173</v>
+      </c>
+      <c r="G150" t="s">
+        <v>173</v>
+      </c>
+      <c r="H150" t="s">
+        <v>173</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" t="s">
+        <v>174</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>173</v>
+      </c>
+      <c r="G151" t="s">
+        <v>173</v>
+      </c>
+      <c r="H151" t="s">
+        <v>173</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>160</v>
+      </c>
+      <c r="D152" t="s">
+        <v>174</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152" t="s">
+        <v>173</v>
+      </c>
+      <c r="G152" t="s">
+        <v>173</v>
+      </c>
+      <c r="H152" t="s">
+        <v>173</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153" t="s">
+        <v>174</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>173</v>
+      </c>
+      <c r="G153" t="s">
+        <v>173</v>
+      </c>
+      <c r="H153" t="s">
+        <v>173</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>162</v>
+      </c>
+      <c r="D154" t="s">
+        <v>174</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>173</v>
+      </c>
+      <c r="G154" t="s">
+        <v>173</v>
+      </c>
+      <c r="H154" t="s">
+        <v>173</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155" t="s">
+        <v>174</v>
+      </c>
+      <c r="E155">
+        <v>50</v>
+      </c>
+      <c r="F155" t="s">
+        <v>173</v>
+      </c>
+      <c r="G155" t="s">
+        <v>173</v>
+      </c>
+      <c r="H155" t="s">
+        <v>173</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>164</v>
+      </c>
+      <c r="D156" t="s">
+        <v>174</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>173</v>
+      </c>
+      <c r="G156" t="s">
+        <v>173</v>
+      </c>
+      <c r="H156" t="s">
+        <v>173</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>165</v>
+      </c>
+      <c r="D157" t="s">
+        <v>174</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>173</v>
+      </c>
+      <c r="G157" t="s">
+        <v>173</v>
+      </c>
+      <c r="H157" t="s">
+        <v>173</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>166</v>
+      </c>
+      <c r="D158" t="s">
+        <v>174</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>173</v>
+      </c>
+      <c r="G158" t="s">
+        <v>173</v>
+      </c>
+      <c r="H158" t="s">
+        <v>173</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>168</v>
+      </c>
+      <c r="D159" t="s">
+        <v>174</v>
+      </c>
+      <c r="E159">
+        <v>14</v>
+      </c>
+      <c r="F159" t="s">
+        <v>173</v>
+      </c>
+      <c r="G159" t="s">
+        <v>173</v>
+      </c>
+      <c r="H159" t="s">
+        <v>173</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>167</v>
+      </c>
+      <c r="D160" t="s">
+        <v>174</v>
+      </c>
+      <c r="E160">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>173</v>
+      </c>
+      <c r="G160" t="s">
+        <v>173</v>
+      </c>
+      <c r="H160" t="s">
+        <v>173</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>172</v>
+      </c>
+      <c r="D161" t="s">
+        <v>174</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161" t="s">
+        <v>173</v>
+      </c>
+      <c r="G161" t="s">
+        <v>173</v>
+      </c>
+      <c r="H161" t="s">
+        <v>173</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>169</v>
+      </c>
+      <c r="D162" t="s">
+        <v>174</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>173</v>
+      </c>
+      <c r="G162" t="s">
+        <v>173</v>
+      </c>
+      <c r="H162" t="s">
+        <v>173</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D163" t="s">
+        <v>174</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>173</v>
+      </c>
+      <c r="G163" t="s">
+        <v>173</v>
+      </c>
+      <c r="H163" t="s">
+        <v>173</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>171</v>
+      </c>
+      <c r="D164" t="s">
+        <v>174</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>173</v>
+      </c>
+      <c r="G164" t="s">
+        <v>173</v>
+      </c>
+      <c r="H164" t="s">
+        <v>173</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B120">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C164">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>